--- a/randomvsGEP.xlsx
+++ b/randomvsGEP.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Stevenson\Desktop\Kuliah\Tesis S2\GEP_ForresterCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EF993-89C0-4705-BDC5-7488527DBCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400B48A-1E1B-4F0A-9B6E-AD44287C3428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20388" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Run</t>
   </si>
@@ -39,7 +49,13 @@
     <t>Gen</t>
   </si>
   <si>
-    <t>GEP(pop20, gen20)</t>
+    <t>GEP(pop50, gen20)</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>n_perfect solution</t>
   </si>
 </sst>
 </file>
@@ -63,10 +79,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -75,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,284 +402,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>999.79219766162396</v>
+      </c>
+      <c r="C3" s="1">
+        <v>997.37773564997303</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>997.37773564997303</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>998.78295865923405</v>
+      </c>
+      <c r="C5" s="1">
+        <v>999.69882009069204</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>999.09378359774303</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>998.91174643377497</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>999.89215105881999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>997.54305803694604</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>999.69882009069204</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>997.54305803694604</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>999.89215105881999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>999.27422761060802</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>998.60049180392696</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>999.89215105881999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1">
+        <v>999.89215105881999</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>999.69882009069204</v>
+      </c>
+      <c r="C11" s="1">
+        <v>981.59152020970703</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>998.30575172668398</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>999.15090874664497</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1">
+        <v>998.09722387962302</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>996.73370011726195</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>997.37773564997303</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>998.89425890429504</v>
+      </c>
+      <c r="C15" s="1">
+        <v>997.76899699820694</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>997.76899699820694</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>997.76899699820694</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>998.60049180392696</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>998.70558941414902</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>999.87867895585703</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <v>999.89215105881999</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>998.81656815353199</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>998.09722387962302</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>997.54305803694604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>999.69882009069204</v>
-      </c>
-      <c r="C3">
-        <v>999.21653277852101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>999.08837538270598</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>997.54305803694604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>993.06210508266599</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>999.07837898902301</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>999.92484796702797</v>
+      </c>
+      <c r="C22" s="1">
+        <v>999.94326445266995</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>997.76899699820694</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>999.12118399194901</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B23" s="1">
+        <f>AVERAGE(B2:B22)</f>
+        <v>999.65752830834447</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:E23" si="0">AVERAGE(C2:C22)</f>
+        <v>997.994205014052</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>999.02390689819492</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>999.69882009069204</v>
-      </c>
-      <c r="C7">
-        <v>999.60688370908895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>998.17021850289302</v>
-      </c>
-      <c r="C8">
-        <v>998.01156102863899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B24" s="2">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>993.59280977391495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>998.34216798241005</v>
-      </c>
-      <c r="C10">
-        <v>997.37773564997303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>999.79219766162396</v>
-      </c>
-      <c r="C11">
-        <v>999.72755505715998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>999.89215105881999</v>
-      </c>
-      <c r="C12">
-        <v>994.39086605026296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>999.89215105881999</v>
-      </c>
-      <c r="C13">
-        <v>999.45436298546599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>999.553520630055</v>
-      </c>
-      <c r="C14">
-        <v>998.39171977996295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="C15">
-        <v>998.60049180392696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="C16">
-        <v>981.59152020970703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1000</v>
-      </c>
-      <c r="C17">
-        <v>993.55788193652404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>999.72755505715998</v>
-      </c>
-      <c r="C18">
-        <v>997.76899699820694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>999.69882009069204</v>
-      </c>
-      <c r="C19">
-        <v>1000</v>
-      </c>
-      <c r="D19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="C20">
-        <v>993.55788193652404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>999.89215105881999</v>
-      </c>
-      <c r="C21">
-        <v>993.16713285716298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>997.54305803694604</v>
-      </c>
-      <c r="C22">
-        <v>999.89215105881999</v>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:C24 E1:E24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C24 E2:E24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C23 E2:E23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/randomvsGEP.xlsx
+++ b/randomvsGEP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Stevenson\Desktop\Kuliah\Tesis S2\GEP_ForresterCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400B48A-1E1B-4F0A-9B6E-AD44287C3428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332ACD54-EABA-4C3D-98F3-7C1868914DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="1035" windowWidth="27000" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Run</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>n_perfect solution</t>
+  </si>
+  <si>
+    <t>GEP(pop25, gen40)</t>
+  </si>
+  <si>
+    <t>GEP(pop40, gen25)</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +421,11 @@
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +444,20 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -456,8 +476,17 @@
       <c r="F2" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>997.76899699820694</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -474,8 +503,17 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>999.27344704546101</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -492,8 +530,17 @@
         <v>997.37773564997303</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>998.14113464749403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -508,8 +555,14 @@
         <v>999.09378359774303</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>997.76899699820694</v>
+      </c>
+      <c r="I5">
+        <v>997.76899699820694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -528,8 +581,11 @@
       <c r="F6" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>999.79219766162396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -546,8 +602,14 @@
       <c r="F7" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -562,8 +624,14 @@
         <v>997.54305803694604</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -578,8 +646,11 @@
         <v>998.60049180392696</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>997.54305803694604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -596,8 +667,11 @@
         <v>999.89215105881999</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>998.30575172668398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -612,8 +686,11 @@
         <v>998.30575172668398</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>997.76899699820694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -630,8 +707,11 @@
         <v>998.09722387962302</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>999.92484796702797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -647,7 +727,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -667,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -683,7 +763,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -840,7 +920,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C24 E1:E24">
+  <conditionalFormatting sqref="B1:C24 E1:E24 G1:J1">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
